--- a/input/input.xlsx
+++ b/input/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35193\Desktop\bolsa aquele emoji\bolsa_meu\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C224BFF2-6092-4813-A7D4-55CB41EC5458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE386D6B-65D7-48AC-B922-C377EA25B1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,7 +499,7 @@
   <dimension ref="A1:BD59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3251,7 +3251,7 @@
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D56"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4053,7 +4053,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/input/input.xlsx
+++ b/input/input.xlsx
@@ -5,16 +5,16 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35193\Desktop\bolsa aquele emoji\bolsa_meu\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35193\Desktop\bolsa\bolsa_meu\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE386D6B-65D7-48AC-B922-C377EA25B1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D120398-22CD-48EF-8C8F-FEB2EAB23E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compatibilidade" sheetId="5" r:id="rId1"/>
-    <sheet name="Apetência" sheetId="1" r:id="rId2"/>
+    <sheet name="Aptidão" sheetId="1" r:id="rId2"/>
     <sheet name="Projeto" sheetId="4" r:id="rId3"/>
     <sheet name="Preferências" sheetId="3" r:id="rId4"/>
     <sheet name="AnosServicos" sheetId="2" r:id="rId5"/>
@@ -119,6 +119,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -198,9 +201,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -208,6 +208,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -499,7 +502,7 @@
   <dimension ref="A1:BD59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,21 +548,21 @@
     <row r="4" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="3"/>
@@ -727,462 +730,462 @@
       </c>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="4">
-        <f>($G$2*AnosServicos!$B$2)+(Compatibilidade!$H$2*Apetência!C6)+(Compatibilidade!$I$2*Projeto!B2)</f>
+      <c r="C6" s="7">
+        <f>($G$2*AnosServicos!$B$2)+(Compatibilidade!$H$2*Aptidão!C6)+(Compatibilidade!$I$2*Projeto!B2)</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="D6" s="4">
-        <f>($G$2*AnosServicos!$B$2)+(Compatibilidade!$H$2*Apetência!D6)+(Compatibilidade!$I$2*Projeto!C2)</f>
+      <c r="D6" s="7">
+        <f>($G$2*AnosServicos!$B$2)+(Compatibilidade!$H$2*Aptidão!D6)+(Compatibilidade!$I$2*Projeto!C2)</f>
+        <v>4.3</v>
+      </c>
+      <c r="E6" s="7">
+        <f>($G$2*AnosServicos!$B$2)+(Compatibilidade!$H$2*Aptidão!E6)+(Compatibilidade!$I$2*Projeto!D2)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F6" s="7">
+        <f>($G$2*AnosServicos!$B$2)+(Compatibilidade!$H$2*Aptidão!F6)+(Compatibilidade!$I$2*Projeto!E2)</f>
+        <v>6.1</v>
+      </c>
+      <c r="G6" s="7">
+        <f>($G$2*AnosServicos!$B$2)+(Compatibilidade!$H$2*Aptidão!G6)+(Compatibilidade!$I$2*Projeto!F2)</f>
         <v>3.7</v>
       </c>
-      <c r="E6" s="4">
-        <f>($G$2*AnosServicos!$B$2)+(Compatibilidade!$H$2*Apetência!E6)+(Compatibilidade!$I$2*Projeto!D2)</f>
+      <c r="H6" s="7">
+        <f>($G$2*AnosServicos!$B$2)+(Compatibilidade!$H$2*Aptidão!H6)+(Compatibilidade!$I$2*Projeto!G2)</f>
         <v>4</v>
       </c>
-      <c r="F6" s="4">
-        <f>($G$2*AnosServicos!$B$2)+(Compatibilidade!$H$2*Apetência!F6)+(Compatibilidade!$I$2*Projeto!E2)</f>
+      <c r="I6" s="7">
+        <f>($G$2*AnosServicos!$B$2)+(Compatibilidade!$H$2*Aptidão!I6)+(Compatibilidade!$I$2*Projeto!H2)</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="G6" s="4">
-        <f>($G$2*AnosServicos!$B$2)+(Compatibilidade!$H$2*Apetência!G6)+(Compatibilidade!$I$2*Projeto!F2)</f>
+      <c r="J6" s="7">
+        <f>($G$2*AnosServicos!$B$2)+(Compatibilidade!$H$2*Aptidão!J6)+(Compatibilidade!$I$2*Projeto!I2)</f>
         <v>3.7</v>
       </c>
-      <c r="H6" s="4">
-        <f>($G$2*AnosServicos!$B$2)+(Compatibilidade!$H$2*Apetência!H6)+(Compatibilidade!$I$2*Projeto!G2)</f>
+      <c r="K6" s="7">
+        <f>($G$2*AnosServicos!$B$2)+(Compatibilidade!$H$2*Aptidão!K6)+(Compatibilidade!$I$2*Projeto!J2)</f>
         <v>4</v>
       </c>
-      <c r="I6" s="4">
-        <f>($G$2*AnosServicos!$B$2)+(Compatibilidade!$H$2*Apetência!I6)+(Compatibilidade!$I$2*Projeto!H2)</f>
+      <c r="L6" s="7">
+        <f>($G$2*AnosServicos!$B$2)+(Compatibilidade!$H$2*Aptidão!L6)+(Compatibilidade!$I$2*Projeto!K2)</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="J6" s="4">
-        <f>($G$2*AnosServicos!$B$2)+(Compatibilidade!$H$2*Apetência!J6)+(Compatibilidade!$I$2*Projeto!I2)</f>
-        <v>3.7</v>
-      </c>
-      <c r="K6" s="4">
-        <f>($G$2*AnosServicos!$B$2)+(Compatibilidade!$H$2*Apetência!K6)+(Compatibilidade!$I$2*Projeto!J2)</f>
-        <v>4</v>
-      </c>
-      <c r="L6" s="4">
-        <f>($G$2*AnosServicos!$B$2)+(Compatibilidade!$H$2*Apetência!L6)+(Compatibilidade!$I$2*Projeto!K2)</f>
-        <v>4.9000000000000004</v>
-      </c>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="4">
-        <f>($G$2*AnosServicos!$B3)+(Compatibilidade!$H$2*Apetência!C7)+(Compatibilidade!$I$2*Projeto!B2)</f>
+      <c r="C7" s="7">
+        <f>($G$2*AnosServicos!$B3)+(Compatibilidade!$H$2*Aptidão!C7)+(Compatibilidade!$I$2*Projeto!B2)</f>
         <v>5.3</v>
       </c>
-      <c r="D7" s="4">
-        <f>($G$2*AnosServicos!$B3)+(Compatibilidade!$H$2*Apetência!D7)+(Compatibilidade!$I$2*Projeto!C2)</f>
+      <c r="D7" s="7">
+        <f>($G$2*AnosServicos!$B3)+(Compatibilidade!$H$2*Aptidão!D7)+(Compatibilidade!$I$2*Projeto!C2)</f>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="E7" s="7">
+        <f>($G$2*AnosServicos!$B3)+(Compatibilidade!$H$2*Aptidão!E7)+(Compatibilidade!$I$2*Projeto!D2)</f>
+        <v>5.3</v>
+      </c>
+      <c r="F7" s="7">
+        <f>($G$2*AnosServicos!$B3)+(Compatibilidade!$H$2*Aptidão!F7)+(Compatibilidade!$I$2*Projeto!E2)</f>
+        <v>6.5</v>
+      </c>
+      <c r="G7" s="7">
+        <f>($G$2*AnosServicos!$B3)+(Compatibilidade!$H$2*Aptidão!G7)+(Compatibilidade!$I$2*Projeto!F2)</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="E7" s="4">
-        <f>($G$2*AnosServicos!$B3)+(Compatibilidade!$H$2*Apetência!E7)+(Compatibilidade!$I$2*Projeto!D2)</f>
+      <c r="H7" s="7">
+        <f>($G$2*AnosServicos!$B3)+(Compatibilidade!$H$2*Aptidão!H7)+(Compatibilidade!$I$2*Projeto!G2)</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="F7" s="4">
-        <f>($G$2*AnosServicos!$B3)+(Compatibilidade!$H$2*Apetência!F7)+(Compatibilidade!$I$2*Projeto!E2)</f>
+      <c r="I7" s="7">
+        <f>($G$2*AnosServicos!$B3)+(Compatibilidade!$H$2*Aptidão!I7)+(Compatibilidade!$I$2*Projeto!H2)</f>
         <v>5.3</v>
       </c>
-      <c r="G7" s="4">
-        <f>($G$2*AnosServicos!$B3)+(Compatibilidade!$H$2*Apetência!G7)+(Compatibilidade!$I$2*Projeto!F2)</f>
+      <c r="J7" s="7">
+        <f>($G$2*AnosServicos!$B3)+(Compatibilidade!$H$2*Aptidão!J7)+(Compatibilidade!$I$2*Projeto!I2)</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="H7" s="4">
-        <f>($G$2*AnosServicos!$B3)+(Compatibilidade!$H$2*Apetência!H7)+(Compatibilidade!$I$2*Projeto!G2)</f>
+      <c r="K7" s="7">
+        <f>($G$2*AnosServicos!$B3)+(Compatibilidade!$H$2*Aptidão!K7)+(Compatibilidade!$I$2*Projeto!J2)</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="I7" s="4">
-        <f>($G$2*AnosServicos!$B3)+(Compatibilidade!$H$2*Apetência!I7)+(Compatibilidade!$I$2*Projeto!H2)</f>
+      <c r="L7" s="7">
+        <f>($G$2*AnosServicos!$B3)+(Compatibilidade!$H$2*Aptidão!L7)+(Compatibilidade!$I$2*Projeto!K2)</f>
         <v>5.3</v>
       </c>
-      <c r="J7" s="4">
-        <f>($G$2*AnosServicos!$B3)+(Compatibilidade!$H$2*Apetência!J7)+(Compatibilidade!$I$2*Projeto!I2)</f>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="K7" s="4">
-        <f>($G$2*AnosServicos!$B3)+(Compatibilidade!$H$2*Apetência!K7)+(Compatibilidade!$I$2*Projeto!J2)</f>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="L7" s="4">
-        <f>($G$2*AnosServicos!$B3)+(Compatibilidade!$H$2*Apetência!L7)+(Compatibilidade!$I$2*Projeto!K2)</f>
-        <v>5.3</v>
-      </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="3">
         <v>3</v>
       </c>
-      <c r="C8" s="4">
-        <f>($G$2*AnosServicos!$B4)+(Compatibilidade!$H$2*Apetência!C8)+(Compatibilidade!$I$2*Projeto!B2)</f>
+      <c r="C8" s="7">
+        <f>($G$2*AnosServicos!$B4)+(Compatibilidade!$H$2*Aptidão!C8)+(Compatibilidade!$I$2*Projeto!B2)</f>
         <v>5.7</v>
       </c>
-      <c r="D8" s="4">
-        <f>($G$2*AnosServicos!$B4)+(Compatibilidade!$H$2*Apetência!D8)+(Compatibilidade!$I$2*Projeto!C2)</f>
+      <c r="D8" s="7">
+        <f>($G$2*AnosServicos!$B4)+(Compatibilidade!$H$2*Aptidão!D8)+(Compatibilidade!$I$2*Projeto!C2)</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E8" s="7">
+        <f>($G$2*AnosServicos!$B4)+(Compatibilidade!$H$2*Aptidão!E8)+(Compatibilidade!$I$2*Projeto!D2)</f>
+        <v>5.7</v>
+      </c>
+      <c r="F8" s="7">
+        <f>($G$2*AnosServicos!$B4)+(Compatibilidade!$H$2*Aptidão!F8)+(Compatibilidade!$I$2*Projeto!E2)</f>
+        <v>6.9</v>
+      </c>
+      <c r="G8" s="7">
+        <f>($G$2*AnosServicos!$B4)+(Compatibilidade!$H$2*Aptidão!G8)+(Compatibilidade!$I$2*Projeto!F2)</f>
         <v>4.5</v>
       </c>
-      <c r="E8" s="4">
-        <f>($G$2*AnosServicos!$B4)+(Compatibilidade!$H$2*Apetência!E8)+(Compatibilidade!$I$2*Projeto!D2)</f>
+      <c r="H8" s="7">
+        <f>($G$2*AnosServicos!$B4)+(Compatibilidade!$H$2*Aptidão!H8)+(Compatibilidade!$I$2*Projeto!G2)</f>
         <v>4.8000000000000007</v>
       </c>
-      <c r="F8" s="4">
-        <f>($G$2*AnosServicos!$B4)+(Compatibilidade!$H$2*Apetência!F8)+(Compatibilidade!$I$2*Projeto!E2)</f>
+      <c r="I8" s="7">
+        <f>($G$2*AnosServicos!$B4)+(Compatibilidade!$H$2*Aptidão!I8)+(Compatibilidade!$I$2*Projeto!H2)</f>
         <v>5.7</v>
       </c>
-      <c r="G8" s="4">
-        <f>($G$2*AnosServicos!$B4)+(Compatibilidade!$H$2*Apetência!G8)+(Compatibilidade!$I$2*Projeto!F2)</f>
+      <c r="J8" s="7">
+        <f>($G$2*AnosServicos!$B4)+(Compatibilidade!$H$2*Aptidão!J8)+(Compatibilidade!$I$2*Projeto!I2)</f>
         <v>4.5</v>
       </c>
-      <c r="H8" s="4">
-        <f>($G$2*AnosServicos!$B4)+(Compatibilidade!$H$2*Apetência!H8)+(Compatibilidade!$I$2*Projeto!G2)</f>
+      <c r="K8" s="7">
+        <f>($G$2*AnosServicos!$B4)+(Compatibilidade!$H$2*Aptidão!K8)+(Compatibilidade!$I$2*Projeto!J2)</f>
         <v>4.8000000000000007</v>
       </c>
-      <c r="I8" s="4">
-        <f>($G$2*AnosServicos!$B4)+(Compatibilidade!$H$2*Apetência!I8)+(Compatibilidade!$I$2*Projeto!H2)</f>
+      <c r="L8" s="7">
+        <f>($G$2*AnosServicos!$B4)+(Compatibilidade!$H$2*Aptidão!L8)+(Compatibilidade!$I$2*Projeto!K2)</f>
         <v>5.7</v>
       </c>
-      <c r="J8" s="4">
-        <f>($G$2*AnosServicos!$B4)+(Compatibilidade!$H$2*Apetência!J8)+(Compatibilidade!$I$2*Projeto!I2)</f>
-        <v>4.5</v>
-      </c>
-      <c r="K8" s="4">
-        <f>($G$2*AnosServicos!$B4)+(Compatibilidade!$H$2*Apetência!K8)+(Compatibilidade!$I$2*Projeto!J2)</f>
-        <v>4.8000000000000007</v>
-      </c>
-      <c r="L8" s="4">
-        <f>($G$2*AnosServicos!$B4)+(Compatibilidade!$H$2*Apetência!L8)+(Compatibilidade!$I$2*Projeto!K2)</f>
-        <v>5.7</v>
-      </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="3">
         <v>4</v>
       </c>
-      <c r="C9" s="4">
-        <f>($G$2*AnosServicos!$B5)+(Compatibilidade!$H$2*Apetência!C9)+(Compatibilidade!$I$2*Projeto!B2)</f>
+      <c r="C9" s="7">
+        <f>($G$2*AnosServicos!$B5)+(Compatibilidade!$H$2*Aptidão!C9)+(Compatibilidade!$I$2*Projeto!B2)</f>
         <v>6.1</v>
       </c>
-      <c r="D9" s="4">
-        <f>($G$2*AnosServicos!$B5)+(Compatibilidade!$H$2*Apetência!D9)+(Compatibilidade!$I$2*Projeto!C2)</f>
+      <c r="D9" s="7">
+        <f>($G$2*AnosServicos!$B5)+(Compatibilidade!$H$2*Aptidão!D9)+(Compatibilidade!$I$2*Projeto!C2)</f>
+        <v>5.5</v>
+      </c>
+      <c r="E9" s="7">
+        <f>($G$2*AnosServicos!$B5)+(Compatibilidade!$H$2*Aptidão!E9)+(Compatibilidade!$I$2*Projeto!D2)</f>
+        <v>6.1</v>
+      </c>
+      <c r="F9" s="7">
+        <f>($G$2*AnosServicos!$B5)+(Compatibilidade!$H$2*Aptidão!F9)+(Compatibilidade!$I$2*Projeto!E2)</f>
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="G9" s="7">
+        <f>($G$2*AnosServicos!$B5)+(Compatibilidade!$H$2*Aptidão!G9)+(Compatibilidade!$I$2*Projeto!F2)</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="E9" s="4">
-        <f>($G$2*AnosServicos!$B5)+(Compatibilidade!$H$2*Apetência!E9)+(Compatibilidade!$I$2*Projeto!D2)</f>
+      <c r="H9" s="7">
+        <f>($G$2*AnosServicos!$B5)+(Compatibilidade!$H$2*Aptidão!H9)+(Compatibilidade!$I$2*Projeto!G2)</f>
         <v>5.2</v>
       </c>
-      <c r="F9" s="4">
-        <f>($G$2*AnosServicos!$B5)+(Compatibilidade!$H$2*Apetência!F9)+(Compatibilidade!$I$2*Projeto!E2)</f>
+      <c r="I9" s="7">
+        <f>($G$2*AnosServicos!$B5)+(Compatibilidade!$H$2*Aptidão!I9)+(Compatibilidade!$I$2*Projeto!H2)</f>
         <v>6.1</v>
       </c>
-      <c r="G9" s="4">
-        <f>($G$2*AnosServicos!$B5)+(Compatibilidade!$H$2*Apetência!G9)+(Compatibilidade!$I$2*Projeto!F2)</f>
+      <c r="J9" s="7">
+        <f>($G$2*AnosServicos!$B5)+(Compatibilidade!$H$2*Aptidão!J9)+(Compatibilidade!$I$2*Projeto!I2)</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="H9" s="4">
-        <f>($G$2*AnosServicos!$B5)+(Compatibilidade!$H$2*Apetência!H9)+(Compatibilidade!$I$2*Projeto!G2)</f>
+      <c r="K9" s="7">
+        <f>($G$2*AnosServicos!$B5)+(Compatibilidade!$H$2*Aptidão!K9)+(Compatibilidade!$I$2*Projeto!J2)</f>
         <v>5.2</v>
       </c>
-      <c r="I9" s="4">
-        <f>($G$2*AnosServicos!$B5)+(Compatibilidade!$H$2*Apetência!I9)+(Compatibilidade!$I$2*Projeto!H2)</f>
+      <c r="L9" s="7">
+        <f>($G$2*AnosServicos!$B5)+(Compatibilidade!$H$2*Aptidão!L9)+(Compatibilidade!$I$2*Projeto!K2)</f>
         <v>6.1</v>
       </c>
-      <c r="J9" s="4">
-        <f>($G$2*AnosServicos!$B5)+(Compatibilidade!$H$2*Apetência!J9)+(Compatibilidade!$I$2*Projeto!I2)</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="K9" s="4">
-        <f>($G$2*AnosServicos!$B5)+(Compatibilidade!$H$2*Apetência!K9)+(Compatibilidade!$I$2*Projeto!J2)</f>
-        <v>5.2</v>
-      </c>
-      <c r="L9" s="4">
-        <f>($G$2*AnosServicos!$B5)+(Compatibilidade!$H$2*Apetência!L9)+(Compatibilidade!$I$2*Projeto!K2)</f>
-        <v>6.1</v>
-      </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="3">
         <v>5</v>
       </c>
-      <c r="C10" s="4">
-        <f>($G$2*AnosServicos!$B6)+(Compatibilidade!$H$2*Apetência!C10)+(Compatibilidade!$I$2*Projeto!B2)</f>
+      <c r="C10" s="7">
+        <f>($G$2*AnosServicos!$B6)+(Compatibilidade!$H$2*Aptidão!C10)+(Compatibilidade!$I$2*Projeto!B2)</f>
         <v>6.5</v>
       </c>
-      <c r="D10" s="4">
-        <f>($G$2*AnosServicos!$B6)+(Compatibilidade!$H$2*Apetência!D10)+(Compatibilidade!$I$2*Projeto!C2)</f>
+      <c r="D10" s="7">
+        <f>($G$2*AnosServicos!$B6)+(Compatibilidade!$H$2*Aptidão!D10)+(Compatibilidade!$I$2*Projeto!C2)</f>
+        <v>5.8999999999999995</v>
+      </c>
+      <c r="E10" s="7">
+        <f>($G$2*AnosServicos!$B6)+(Compatibilidade!$H$2*Aptidão!E10)+(Compatibilidade!$I$2*Projeto!D2)</f>
+        <v>6.5</v>
+      </c>
+      <c r="F10" s="7">
+        <f>($G$2*AnosServicos!$B6)+(Compatibilidade!$H$2*Aptidão!F10)+(Compatibilidade!$I$2*Projeto!E2)</f>
+        <v>7.7</v>
+      </c>
+      <c r="G10" s="7">
+        <f>($G$2*AnosServicos!$B6)+(Compatibilidade!$H$2*Aptidão!G10)+(Compatibilidade!$I$2*Projeto!F2)</f>
         <v>5.3</v>
       </c>
-      <c r="E10" s="4">
-        <f>($G$2*AnosServicos!$B6)+(Compatibilidade!$H$2*Apetência!E10)+(Compatibilidade!$I$2*Projeto!D2)</f>
+      <c r="H10" s="7">
+        <f>($G$2*AnosServicos!$B6)+(Compatibilidade!$H$2*Aptidão!H10)+(Compatibilidade!$I$2*Projeto!G2)</f>
         <v>5.6</v>
       </c>
-      <c r="F10" s="4">
-        <f>($G$2*AnosServicos!$B6)+(Compatibilidade!$H$2*Apetência!F10)+(Compatibilidade!$I$2*Projeto!E2)</f>
+      <c r="I10" s="7">
+        <f>($G$2*AnosServicos!$B6)+(Compatibilidade!$H$2*Aptidão!I10)+(Compatibilidade!$I$2*Projeto!H2)</f>
         <v>6.5</v>
       </c>
-      <c r="G10" s="4">
-        <f>($G$2*AnosServicos!$B6)+(Compatibilidade!$H$2*Apetência!G10)+(Compatibilidade!$I$2*Projeto!F2)</f>
+      <c r="J10" s="7">
+        <f>($G$2*AnosServicos!$B6)+(Compatibilidade!$H$2*Aptidão!J10)+(Compatibilidade!$I$2*Projeto!I2)</f>
         <v>5.3</v>
       </c>
-      <c r="H10" s="4">
-        <f>($G$2*AnosServicos!$B6)+(Compatibilidade!$H$2*Apetência!H10)+(Compatibilidade!$I$2*Projeto!G2)</f>
+      <c r="K10" s="7">
+        <f>($G$2*AnosServicos!$B6)+(Compatibilidade!$H$2*Aptidão!K10)+(Compatibilidade!$I$2*Projeto!J2)</f>
         <v>5.6</v>
       </c>
-      <c r="I10" s="4">
-        <f>($G$2*AnosServicos!$B6)+(Compatibilidade!$H$2*Apetência!I10)+(Compatibilidade!$I$2*Projeto!H2)</f>
+      <c r="L10" s="7">
+        <f>($G$2*AnosServicos!$B6)+(Compatibilidade!$H$2*Aptidão!L10)+(Compatibilidade!$I$2*Projeto!K2)</f>
         <v>6.5</v>
       </c>
-      <c r="J10" s="4">
-        <f>($G$2*AnosServicos!$B6)+(Compatibilidade!$H$2*Apetência!J10)+(Compatibilidade!$I$2*Projeto!I2)</f>
-        <v>5.3</v>
-      </c>
-      <c r="K10" s="4">
-        <f>($G$2*AnosServicos!$B6)+(Compatibilidade!$H$2*Apetência!K10)+(Compatibilidade!$I$2*Projeto!J2)</f>
-        <v>5.6</v>
-      </c>
-      <c r="L10" s="4">
-        <f>($G$2*AnosServicos!$B6)+(Compatibilidade!$H$2*Apetência!L10)+(Compatibilidade!$I$2*Projeto!K2)</f>
-        <v>6.5</v>
-      </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="3">
         <v>6</v>
       </c>
-      <c r="C11" s="4">
-        <f>($G$2*AnosServicos!$B7)+(Compatibilidade!$H$2*Apetência!C11)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="C11" s="7">
+        <f>($G$2*AnosServicos!$B7)+(Compatibilidade!$H$2*Aptidão!C11)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>6.9</v>
       </c>
-      <c r="D11" s="4">
-        <f>($G$2*AnosServicos!$B7)+(Compatibilidade!$H$2*Apetência!D11)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="D11" s="7">
+        <f>($G$2*AnosServicos!$B7)+(Compatibilidade!$H$2*Aptidão!D11)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>5.7</v>
       </c>
-      <c r="E11" s="4">
-        <f>($G$2*AnosServicos!$B7)+(Compatibilidade!$H$2*Apetência!E11)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="E11" s="7">
+        <f>($G$2*AnosServicos!$B7)+(Compatibilidade!$H$2*Aptidão!E11)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>6</v>
       </c>
-      <c r="F11" s="4">
-        <f>($G$2*AnosServicos!$B7)+(Compatibilidade!$H$2*Apetência!F11)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="F11" s="7">
+        <f>($G$2*AnosServicos!$B7)+(Compatibilidade!$H$2*Aptidão!F11)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>6.9</v>
       </c>
-      <c r="G11" s="4">
-        <f>($G$2*AnosServicos!$B7)+(Compatibilidade!$H$2*Apetência!G11)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="G11" s="7">
+        <f>($G$2*AnosServicos!$B7)+(Compatibilidade!$H$2*Aptidão!G11)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>5.7</v>
       </c>
-      <c r="H11" s="4">
-        <f>($G$2*AnosServicos!$B7)+(Compatibilidade!$H$2*Apetência!H11)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="H11" s="7">
+        <f>($G$2*AnosServicos!$B7)+(Compatibilidade!$H$2*Aptidão!H11)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>6</v>
       </c>
-      <c r="I11" s="4">
-        <f>($G$2*AnosServicos!$B7)+(Compatibilidade!$H$2*Apetência!I11)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="I11" s="7">
+        <f>($G$2*AnosServicos!$B7)+(Compatibilidade!$H$2*Aptidão!I11)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>6.9</v>
       </c>
-      <c r="J11" s="4">
-        <f>($G$2*AnosServicos!$B7)+(Compatibilidade!$H$2*Apetência!J11)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="J11" s="7">
+        <f>($G$2*AnosServicos!$B7)+(Compatibilidade!$H$2*Aptidão!J11)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>5.7</v>
       </c>
-      <c r="K11" s="4">
-        <f>($G$2*AnosServicos!$B7)+(Compatibilidade!$H$2*Apetência!K11)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="K11" s="7">
+        <f>($G$2*AnosServicos!$B7)+(Compatibilidade!$H$2*Aptidão!K11)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>6</v>
       </c>
-      <c r="L11" s="4">
-        <f>($G$2*AnosServicos!$B7)+(Compatibilidade!$H$2*Apetência!L11)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="L11" s="7">
+        <f>($G$2*AnosServicos!$B7)+(Compatibilidade!$H$2*Aptidão!L11)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>6.9</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="3">
         <v>7</v>
       </c>
-      <c r="C12" s="4">
-        <f>($G$2*AnosServicos!$B8)+(Compatibilidade!$H$2*Apetência!C12)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="C12" s="7">
+        <f>($G$2*AnosServicos!$B8)+(Compatibilidade!$H$2*Aptidão!C12)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>7.3000000000000007</v>
       </c>
-      <c r="D12" s="4">
-        <f>($G$2*AnosServicos!$B8)+(Compatibilidade!$H$2*Apetência!D12)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="D12" s="7">
+        <f>($G$2*AnosServicos!$B8)+(Compatibilidade!$H$2*Aptidão!D12)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>6.1</v>
       </c>
-      <c r="E12" s="4">
-        <f>($G$2*AnosServicos!$B8)+(Compatibilidade!$H$2*Apetência!E12)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="E12" s="7">
+        <f>($G$2*AnosServicos!$B8)+(Compatibilidade!$H$2*Aptidão!E12)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>6.4</v>
       </c>
-      <c r="F12" s="4">
-        <f>($G$2*AnosServicos!$B8)+(Compatibilidade!$H$2*Apetência!F12)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="F12" s="7">
+        <f>($G$2*AnosServicos!$B8)+(Compatibilidade!$H$2*Aptidão!F12)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>7.3000000000000007</v>
       </c>
-      <c r="G12" s="4">
-        <f>($G$2*AnosServicos!$B8)+(Compatibilidade!$H$2*Apetência!G12)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="G12" s="7">
+        <f>($G$2*AnosServicos!$B8)+(Compatibilidade!$H$2*Aptidão!G12)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>6.1</v>
       </c>
-      <c r="H12" s="4">
-        <f>($G$2*AnosServicos!$B8)+(Compatibilidade!$H$2*Apetência!H12)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="H12" s="7">
+        <f>($G$2*AnosServicos!$B8)+(Compatibilidade!$H$2*Aptidão!H12)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>6.4</v>
       </c>
-      <c r="I12" s="4">
-        <f>($G$2*AnosServicos!$B8)+(Compatibilidade!$H$2*Apetência!I12)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="I12" s="7">
+        <f>($G$2*AnosServicos!$B8)+(Compatibilidade!$H$2*Aptidão!I12)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>7.3000000000000007</v>
       </c>
-      <c r="J12" s="4">
-        <f>($G$2*AnosServicos!$B8)+(Compatibilidade!$H$2*Apetência!J12)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="J12" s="7">
+        <f>($G$2*AnosServicos!$B8)+(Compatibilidade!$H$2*Aptidão!J12)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>6.1</v>
       </c>
-      <c r="K12" s="4">
-        <f>($G$2*AnosServicos!$B8)+(Compatibilidade!$H$2*Apetência!K12)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="K12" s="7">
+        <f>($G$2*AnosServicos!$B8)+(Compatibilidade!$H$2*Aptidão!K12)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>6.4</v>
       </c>
-      <c r="L12" s="4">
-        <f>($G$2*AnosServicos!$B8)+(Compatibilidade!$H$2*Apetência!L12)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="L12" s="7">
+        <f>($G$2*AnosServicos!$B8)+(Compatibilidade!$H$2*Aptidão!L12)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>7.3000000000000007</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="3">
         <v>8</v>
       </c>
-      <c r="C13" s="4">
-        <f>($G$2*AnosServicos!$B9)+(Compatibilidade!$H$2*Apetência!C13)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="C13" s="7">
+        <f>($G$2*AnosServicos!$B9)+(Compatibilidade!$H$2*Aptidão!C13)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>7.7</v>
       </c>
-      <c r="D13" s="4">
-        <f>($G$2*AnosServicos!$B9)+(Compatibilidade!$H$2*Apetência!D13)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="D13" s="7">
+        <f>($G$2*AnosServicos!$B9)+(Compatibilidade!$H$2*Aptidão!D13)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>6.5</v>
       </c>
-      <c r="E13" s="4">
-        <f>($G$2*AnosServicos!$B9)+(Compatibilidade!$H$2*Apetência!E13)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="E13" s="7">
+        <f>($G$2*AnosServicos!$B9)+(Compatibilidade!$H$2*Aptidão!E13)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>6.8000000000000007</v>
       </c>
-      <c r="F13" s="4">
-        <f>($G$2*AnosServicos!$B9)+(Compatibilidade!$H$2*Apetência!F13)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="F13" s="7">
+        <f>($G$2*AnosServicos!$B9)+(Compatibilidade!$H$2*Aptidão!F13)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>7.7</v>
       </c>
-      <c r="G13" s="4">
-        <f>($G$2*AnosServicos!$B9)+(Compatibilidade!$H$2*Apetência!G13)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="G13" s="7">
+        <f>($G$2*AnosServicos!$B9)+(Compatibilidade!$H$2*Aptidão!G13)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>6.5</v>
       </c>
-      <c r="H13" s="4">
-        <f>($G$2*AnosServicos!$B9)+(Compatibilidade!$H$2*Apetência!H13)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="H13" s="7">
+        <f>($G$2*AnosServicos!$B9)+(Compatibilidade!$H$2*Aptidão!H13)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>6.8000000000000007</v>
       </c>
-      <c r="I13" s="4">
-        <f>($G$2*AnosServicos!$B9)+(Compatibilidade!$H$2*Apetência!I13)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="I13" s="7">
+        <f>($G$2*AnosServicos!$B9)+(Compatibilidade!$H$2*Aptidão!I13)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>7.7</v>
       </c>
-      <c r="J13" s="4">
-        <f>($G$2*AnosServicos!$B9)+(Compatibilidade!$H$2*Apetência!J13)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="J13" s="7">
+        <f>($G$2*AnosServicos!$B9)+(Compatibilidade!$H$2*Aptidão!J13)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>6.5</v>
       </c>
-      <c r="K13" s="4">
-        <f>($G$2*AnosServicos!$B9)+(Compatibilidade!$H$2*Apetência!K13)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="K13" s="7">
+        <f>($G$2*AnosServicos!$B9)+(Compatibilidade!$H$2*Aptidão!K13)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>6.8000000000000007</v>
       </c>
-      <c r="L13" s="4">
-        <f>($G$2*AnosServicos!$B9)+(Compatibilidade!$H$2*Apetência!L13)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="L13" s="7">
+        <f>($G$2*AnosServicos!$B9)+(Compatibilidade!$H$2*Aptidão!L13)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>7.7</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="3">
         <v>9</v>
       </c>
-      <c r="C14" s="4">
-        <f>($G$2*AnosServicos!$B10)+(Compatibilidade!$H$2*Apetência!C14)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="C14" s="7">
+        <f>($G$2*AnosServicos!$B10)+(Compatibilidade!$H$2*Aptidão!C14)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>8.1</v>
       </c>
-      <c r="D14" s="4">
-        <f>($G$2*AnosServicos!$B10)+(Compatibilidade!$H$2*Apetência!D14)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="D14" s="7">
+        <f>($G$2*AnosServicos!$B10)+(Compatibilidade!$H$2*Aptidão!D14)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>6.9</v>
       </c>
-      <c r="E14" s="4">
-        <f>($G$2*AnosServicos!$B10)+(Compatibilidade!$H$2*Apetência!E14)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="E14" s="7">
+        <f>($G$2*AnosServicos!$B10)+(Compatibilidade!$H$2*Aptidão!E14)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>7.2</v>
       </c>
-      <c r="F14" s="4">
-        <f>($G$2*AnosServicos!$B10)+(Compatibilidade!$H$2*Apetência!F14)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="F14" s="7">
+        <f>($G$2*AnosServicos!$B10)+(Compatibilidade!$H$2*Aptidão!F14)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>8.1</v>
       </c>
-      <c r="G14" s="4">
-        <f>($G$2*AnosServicos!$B10)+(Compatibilidade!$H$2*Apetência!G14)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="G14" s="7">
+        <f>($G$2*AnosServicos!$B10)+(Compatibilidade!$H$2*Aptidão!G14)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>6.9</v>
       </c>
-      <c r="H14" s="4">
-        <f>($G$2*AnosServicos!$B10)+(Compatibilidade!$H$2*Apetência!H14)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="H14" s="7">
+        <f>($G$2*AnosServicos!$B10)+(Compatibilidade!$H$2*Aptidão!H14)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>7.2</v>
       </c>
-      <c r="I14" s="4">
-        <f>($G$2*AnosServicos!$B10)+(Compatibilidade!$H$2*Apetência!I14)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="I14" s="7">
+        <f>($G$2*AnosServicos!$B10)+(Compatibilidade!$H$2*Aptidão!I14)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>8.1</v>
       </c>
-      <c r="J14" s="4">
-        <f>($G$2*AnosServicos!$B10)+(Compatibilidade!$H$2*Apetência!J14)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="J14" s="7">
+        <f>($G$2*AnosServicos!$B10)+(Compatibilidade!$H$2*Aptidão!J14)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>6.9</v>
       </c>
-      <c r="K14" s="4">
-        <f>($G$2*AnosServicos!$B10)+(Compatibilidade!$H$2*Apetência!K14)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="K14" s="7">
+        <f>($G$2*AnosServicos!$B10)+(Compatibilidade!$H$2*Aptidão!K14)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>7.2</v>
       </c>
-      <c r="L14" s="4">
-        <f>($G$2*AnosServicos!$B10)+(Compatibilidade!$H$2*Apetência!L14)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="L14" s="7">
+        <f>($G$2*AnosServicos!$B10)+(Compatibilidade!$H$2*Aptidão!L14)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>8.1</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="3">
         <v>10</v>
       </c>
-      <c r="C15" s="4">
-        <f>($G$2*AnosServicos!$B11)+(Compatibilidade!$H$2*Apetência!C15)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="C15" s="7">
+        <f>($G$2*AnosServicos!$B11)+(Compatibilidade!$H$2*Aptidão!C15)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>8.5</v>
       </c>
-      <c r="D15" s="4">
-        <f>($G$2*AnosServicos!$B11)+(Compatibilidade!$H$2*Apetência!D15)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="D15" s="7">
+        <f>($G$2*AnosServicos!$B11)+(Compatibilidade!$H$2*Aptidão!D15)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>7.3</v>
       </c>
-      <c r="E15" s="4">
-        <f>($G$2*AnosServicos!$B11)+(Compatibilidade!$H$2*Apetência!E15)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="E15" s="7">
+        <f>($G$2*AnosServicos!$B11)+(Compatibilidade!$H$2*Aptidão!E15)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>7.6</v>
       </c>
-      <c r="F15" s="4">
-        <f>($G$2*AnosServicos!$B11)+(Compatibilidade!$H$2*Apetência!F15)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="F15" s="7">
+        <f>($G$2*AnosServicos!$B11)+(Compatibilidade!$H$2*Aptidão!F15)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>8.5</v>
       </c>
-      <c r="G15" s="4">
-        <f>($G$2*AnosServicos!$B11)+(Compatibilidade!$H$2*Apetência!G15)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="G15" s="7">
+        <f>($G$2*AnosServicos!$B11)+(Compatibilidade!$H$2*Aptidão!G15)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>7.3</v>
       </c>
-      <c r="H15" s="4">
-        <f>($G$2*AnosServicos!$B11)+(Compatibilidade!$H$2*Apetência!H15)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="H15" s="7">
+        <f>($G$2*AnosServicos!$B11)+(Compatibilidade!$H$2*Aptidão!H15)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>7.6</v>
       </c>
-      <c r="I15" s="4">
-        <f>($G$2*AnosServicos!$B11)+(Compatibilidade!$H$2*Apetência!I15)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="I15" s="7">
+        <f>($G$2*AnosServicos!$B11)+(Compatibilidade!$H$2*Aptidão!I15)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>8.5</v>
       </c>
-      <c r="J15" s="4">
-        <f>($G$2*AnosServicos!$B11)+(Compatibilidade!$H$2*Apetência!J15)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="J15" s="7">
+        <f>($G$2*AnosServicos!$B11)+(Compatibilidade!$H$2*Aptidão!J15)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>7.3</v>
       </c>
-      <c r="K15" s="4">
-        <f>($G$2*AnosServicos!$B11)+(Compatibilidade!$H$2*Apetência!K15)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="K15" s="7">
+        <f>($G$2*AnosServicos!$B11)+(Compatibilidade!$H$2*Aptidão!K15)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>7.6</v>
       </c>
-      <c r="L15" s="4">
-        <f>($G$2*AnosServicos!$B11)+(Compatibilidade!$H$2*Apetência!L15)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
+      <c r="L15" s="7">
+        <f>($G$2*AnosServicos!$B11)+(Compatibilidade!$H$2*Aptidão!L15)+(Compatibilidade!$I$2*Projeto!$B$2)</f>
         <v>8.5</v>
       </c>
     </row>
@@ -1421,7 +1424,7 @@
   <dimension ref="A4:BC59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2450,7 +2453,7 @@
   <dimension ref="A1:BZ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2699,13 +2702,13 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2">
         <v>10</v>
@@ -3251,7 +3254,7 @@
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3262,11 +3265,11 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -4053,7 +4056,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/input/input.xlsx
+++ b/input/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35193\Desktop\bolsa\bolsa_meu\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D120398-22CD-48EF-8C8F-FEB2EAB23E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789C1A88-ECF5-42D4-A87B-D53DBC47BC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
